--- a/ASL/ASL.xlsx
+++ b/ASL/ASL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -576,7 +591,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>M W</t>
+          <t>Tu Th</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -608,7 +623,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -629,18 +644,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
         <v>3.466666666666667</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -654,7 +674,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -662,35 +682,23 @@
           <t>24568</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5:00pm</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6:50pm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
         <v>32</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -700,13 +708,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -729,16 +741,25 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.733333333333333</v>
+        <v>4.133333333333333</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -752,7 +773,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -769,7 +790,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>32</v>
@@ -786,17 +807,13 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -823,12 +840,21 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.866666666666667</v>
+        <v>2.266666666666667</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -842,7 +868,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -859,7 +885,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>32</v>
@@ -876,18 +902,18 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Lim, A</t>
+          <t>Hall, C</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -909,12 +935,21 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.733333333333333</v>
+        <v>0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -928,7 +963,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -945,7 +980,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>32</v>
@@ -962,13 +997,13 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -995,12 +1030,21 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.466666666666667</v>
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1014,7 +1058,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1031,7 +1075,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>32</v>
@@ -1048,18 +1092,18 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Harper-Johnson, P</t>
+          <t>Delao, J</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1081,12 +1125,21 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.733333333333333</v>
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1100,7 +1153,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1117,7 +1170,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
         <v>32</v>
@@ -1134,18 +1187,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Morford, V</t>
+          <t>Harper-Johnson, P</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1167,12 +1220,21 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.466666666666667</v>
+        <v>3.6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1186,7 +1248,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1194,16 +1256,28 @@
           <t>24580</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11:50am</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K9" t="n">
         <v>32</v>
@@ -1220,18 +1294,18 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Hall, C</t>
+          <t>Morford, V</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1247,18 +1321,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>3.333333333333333</v>
+        <v>3.733333333333333</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1272,7 +1351,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1289,7 +1368,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
         <v>32</v>
@@ -1306,13 +1385,13 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1339,12 +1418,21 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.6</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1358,7 +1446,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1375,7 +1463,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
         <v>32</v>
@@ -1392,13 +1480,13 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1425,12 +1513,21 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.733333333333333</v>
+        <v>1.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1444,7 +1541,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1452,16 +1549,28 @@
           <t>24584</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5:00pm</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6:50pm</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
         <v>32</v>
@@ -1478,13 +1587,13 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1505,18 +1614,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>4.133333333333333</v>
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1530,7 +1644,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1547,7 +1661,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" t="n">
         <v>32</v>
@@ -1564,13 +1678,13 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1597,12 +1711,21 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.533333333333333</v>
+        <v>2.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1616,7 +1739,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1633,7 +1756,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>32</v>
@@ -1650,13 +1773,13 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1683,12 +1806,21 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.466666666666667</v>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1702,7 +1834,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1710,16 +1842,28 @@
           <t>30402</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11:50am</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>32</v>
@@ -1736,13 +1880,13 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1765,16 +1909,25 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1783,32 +1936,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASL 215</t>
+          <t>ASL 211</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28153</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>33241</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7:35am</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>8:55am</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>M Tu F</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1817,23 +1982,23 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Green, T</t>
+          <t>Perez, L</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1842,25 +2007,30 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
           <t>Books</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>0.7000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1869,83 +2039,389 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>ASL 211</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fifteen Week B16 M,T,W Session (1/30/2023 - 5/17/2023)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33243</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8:35am</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9:55am</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>M Tu W</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>In Person</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Stevenson, J</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>72</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ASL 215</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28153</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Green, T</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>54</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>ASL 220</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33245</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1:50pm</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>In Person</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>32</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Morford, V</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>54</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ASL 220</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>30404</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>19</v>
+      </c>
+      <c r="K20" t="n">
         <v>32</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Wait List</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Gough, T</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
       </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
-      <c r="T17" t="inlineStr">
+      <c r="S20" t="n">
+        <v>54</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>Books</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>Online Course</t>
         </is>
       </c>
-      <c r="V17" t="n">
-        <v>0.1666666666666667</v>
+      <c r="V20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/ASL/ASL.xlsx
+++ b/ASL/ASL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
         <v>32</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>3.466666666666667</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="W2" t="n">
         <v>4.266666666666667</v>
@@ -655,7 +655,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
         <v>32</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.266666666666667</v>
+        <v>2.8</v>
       </c>
       <c r="W4" t="n">
         <v>4.266666666666667</v>
@@ -849,7 +849,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>32</v>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W7" t="n">
         <v>4.266666666666667</v>
@@ -1134,7 +1134,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
         <v>32</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.6</v>
+        <v>4.133333333333333</v>
       </c>
       <c r="W8" t="n">
         <v>4.266666666666667</v>
@@ -1229,7 +1229,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="9">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K9" t="n">
         <v>32</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>3.733333333333333</v>
+        <v>4.133333333333333</v>
       </c>
       <c r="W9" t="n">
         <v>4.266666666666667</v>
@@ -1332,7 +1332,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26299</t>
+          <t>33373</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1475,23 +1475,23 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Harper-Johnson, P</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>4.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ASL 111</t>
+          <t>ASL 110</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1546,31 +1546,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24584</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5:00pm</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>6:50pm</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>26299</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K12" t="n">
         <v>32</v>
@@ -1587,7 +1575,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1598,7 +1586,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Michelotti, A</t>
+          <t>Harper-Johnson, P</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1614,9 +1602,13 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
       <c r="V12" t="n">
-        <v>0.9333333333333333</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="W12" t="n">
         <v>4.266666666666667</v>
@@ -1625,7 +1617,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
@@ -1639,7 +1631,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ASL 111</t>
+          <t>ASL 110</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1649,7 +1641,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30400</t>
+          <t>33375</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1661,10 +1653,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1673,23 +1665,23 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Hall, C</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1711,16 +1703,16 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1734,7 +1726,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ASL 210</t>
+          <t>ASL 111</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1744,19 +1736,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24588</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>24584</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5:00pm</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6:50pm</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
         <v>32</v>
@@ -1773,7 +1777,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1784,7 +1788,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Gough, T</t>
+          <t>Michelotti, A</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1800,13 +1804,9 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>1.333333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
         <v>4.266666666666667</v>
@@ -1815,7 +1815,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ASL 211</t>
+          <t>ASL 111</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1839,34 +1839,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30402</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10:00am</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>11:50am</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+          <t>33377</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1875,23 +1863,23 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Hall, C</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1909,20 +1897,20 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="Y15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1936,44 +1924,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASL 211</t>
+          <t>ASL 111</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33241</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7:35am</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>8:55am</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>M Tu F</t>
-        </is>
-      </c>
+          <t>30400</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1982,23 +1958,23 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Perez, L</t>
+          <t>Hall, C</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2014,18 +1990,22 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="X16" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
@@ -2039,44 +2019,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ASL 211</t>
+          <t>ASL 210</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fifteen Week B16 M,T,W Session (1/30/2023 - 5/17/2023)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33243</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8:35am</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>9:55am</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>M Tu W</t>
-        </is>
-      </c>
+          <t>24588</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2085,23 +2053,23 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Stevenson, J</t>
+          <t>Gough, T</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2117,18 +2085,22 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="X17" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2142,7 +2114,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ASL 215</t>
+          <t>ASL 211</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2152,15 +2124,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28153</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>30402</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>11:50am</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -2192,7 +2176,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Green, T</t>
+          <t>Hall, C</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2201,7 +2185,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2210,17 +2194,17 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="W18" t="n">
-        <v>3.2</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y18" t="n">
         <v>3.5</v>
@@ -2228,7 +2212,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2237,32 +2221,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASL 220</t>
+          <t>ASL 211</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33245</t>
+          <t>33241</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12:30pm</t>
+          <t>7:35am</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:50pm</t>
+          <t>8:55am</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tu Th</t>
+          <t>M Tu F</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2271,10 +2255,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2283,23 +2267,23 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Morford, V</t>
+          <t>Perez, L</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2308,7 +2292,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2317,21 +2301,21 @@
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2340,32 +2324,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ASL 220</t>
+          <t>ASL 211</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+          <t>Fifteen Week B16 M,T,W Session (1/30/2023 - 5/17/2023)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30404</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>33243</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8:35am</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>9:55am</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>M Tu W</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2374,54 +2370,343 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Stevenson, J</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>72</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ASL 215</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28153</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>32</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Green, T</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>54</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ASL 220</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33245</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1:50pm</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>In Person</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Morford, V</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>54</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ASL 220</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30404</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>24</v>
+      </c>
+      <c r="K23" t="n">
+        <v>32</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Gough, T</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="S23" t="n">
         <v>54</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Books</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Online Course</t>
         </is>
       </c>
-      <c r="V20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="V23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W23" t="n">
         <v>3.2</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X23" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9.5</v>
+      <c r="Y23" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
